--- a/biology/Botanique/ExpoCité/ExpoCité.xlsx
+++ b/biology/Botanique/ExpoCité/ExpoCité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ExpoCit%C3%A9</t>
+          <t>ExpoCité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ExpoCité, appelé le Parc de l'Exposition jusqu'en 1997, est un site de divertissement, de foires et d'expositions regroupant plusieurs bâtiments situé dans l'arrondissement La Cité-Limoilou, à proximité du centre-ville de Québec. C'est également le nom de la corporation para-municipale mandatée par la Ville de Québec pour administrer ces installations. Le Centre Vidéotron est situé au cœur du site.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ExpoCit%C3%A9</t>
+          <t>ExpoCité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ExpoCité est situé dans le quartier Lairet, dans le quadrilatère formé par l'avenue du Colisée, le boulevard Wilfrid-Hamel, l'autoroute Laurentienne et la rue Soumande.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ExpoCit%C3%A9</t>
+          <t>ExpoCité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Compagnie de l'exposition de Québec, organisme privé, achète le terrain appelé la propriété Gowen en 1898[1] pour y tenir son exposition agricole annuelle. En 1911, la Ville de Québec achète le site et crée la Commission de l'Exposition provinciale. Elle commence à y construire des bâtiments permanents : l'hippodrome de Québec est construit en 1916, le Pavillon de l'industrie et du commerce en 1923, le Pavillon de l'agriculture (futur pavillon de la Jeunesse) en 1930, et surtout le Colisée de Québec en 1949. En 1997 on renomme l'ensemble du site ExpoCité[2].
-Parmi les plus récents ajouts importants sont le Centre Vidéotron, qui a été inauguré en septembre 2015, et le Centre de foires de 1997[3]. Le pavillon de la Jeunesse a été complètement rénové en 2007. L'espace K a été démoli en 2016.
-L'ancien Marché aux puces extérieur de Sainte-Foy déménage en juin 2019 derrière le Colisée Pepsi durant la saison estivale, de juin à octobre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Compagnie de l'exposition de Québec, organisme privé, achète le terrain appelé la propriété Gowen en 1898 pour y tenir son exposition agricole annuelle. En 1911, la Ville de Québec achète le site et crée la Commission de l'Exposition provinciale. Elle commence à y construire des bâtiments permanents : l'hippodrome de Québec est construit en 1916, le Pavillon de l'industrie et du commerce en 1923, le Pavillon de l'agriculture (futur pavillon de la Jeunesse) en 1930, et surtout le Colisée de Québec en 1949. En 1997 on renomme l'ensemble du site ExpoCité.
+Parmi les plus récents ajouts importants sont le Centre Vidéotron, qui a été inauguré en septembre 2015, et le Centre de foires de 1997. Le pavillon de la Jeunesse a été complètement rénové en 2007. L'espace K a été démoli en 2016.
+L'ancien Marché aux puces extérieur de Sainte-Foy déménage en juin 2019 derrière le Colisée Pepsi durant la saison estivale, de juin à octobre.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ExpoCit%C3%A9</t>
+          <t>ExpoCité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,23 +592,59 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site comprend plusieurs édifices et installations sportives, dont les plus importants sont les suivants:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le site comprend plusieurs édifices et installations sportives, dont les plus importants sont les suivants:
 le Centre Vidéotron (2015)
-le centre administratif (2008)[5]
+le centre administratif (2008)
 le Centre de foires de Québec (1997)
 le Colisée de Québec (1949)
 le Pavillon Guy-Lafleur (1931), anciennement nommé Pavillon de la jeunesse.
 le Grand Marché de Québec (1923), anciennement nommé Pavillon du commerce.
 le Pavillon des arts (1913)
-les pavillons C, D et E, auparavant appelés Pavillons des bovins[2] et utilisés lors des expositions agricoles
+les pavillons C, D et E, auparavant appelés Pavillons des bovins et utilisés lors des expositions agricoles
 la station de télévision de CFCM-DT (TVA), qui a emménagé en 2016, adjacent au Centre Vidéotron (ancien salon de jeux)
-la place Jean-Béliveau, place publique aménagée devant le Centre Vidéotron et l'Allée commémorative dédiée au hockey[6] (2017)
-Anciens édifices
-L'Hippodrome de Québec, construit en 1916 et démoli en 2012
+la place Jean-Béliveau, place publique aménagée devant le Centre Vidéotron et l'Allée commémorative dédiée au hockey (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ExpoCité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/ExpoCit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciens édifices</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hippodrome de Québec, construit en 1916 et démoli en 2012
 L'Espace K, un bâtiment d'exposition jouxtant le pavillon de la Jeunesse, démoli en 2016
-Le Salon de jeux géré par Loto-Québec, aménagé en 2007 et déplacé en 2014 au centre commercial Place Fleur-de-Lys[7]. La station CFCM-DT y a emménagé en 2016.
+Le Salon de jeux géré par Loto-Québec, aménagé en 2007 et déplacé en 2014 au centre commercial Place Fleur-de-Lys. La station CFCM-DT y a emménagé en 2016.
 			Le Pavillon des arts, plus vieux bâtiment du site
 			Le Pavillon du commerce, qui est un marché public en 2019
 			Le Centre de foires de Québec
@@ -600,36 +652,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ExpoCit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ExpoCité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/ExpoCit%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Expo Québec
-Le site d'ExpoCité a surtout été connu pour être le siège d'une grande foire de fin d'été, tenue à partir de 1911 et appelée Exposition provinciale de Québec, avant de prendre le nom d'Expo Québec en 1968. Sa tenue a été interrompue après l'édition de 2015[8].
-Sports
-8 au 10 juin 1979 - Courses automobiles - Grand Prix de Québec[9]
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expo Québec</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site d'ExpoCité a surtout été connu pour être le siège d'une grande foire de fin d'été, tenue à partir de 1911 et appelée Exposition provinciale de Québec, avant de prendre le nom d'Expo Québec en 1968. Sa tenue a été interrompue après l'édition de 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ExpoCité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/ExpoCit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Évènements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8 au 10 juin 1979 - Courses automobiles - Grand Prix de Québec
 juin 1978 - Courses Automobiles - Grand Prix de Québec
 25 septembre 1977 - Courses automobiles - Grand Prix de Québec</t>
         </is>
